--- a/GAExamSchedule/ScheduleData/Sınıflar.xlsx
+++ b/GAExamSchedule/ScheduleData/Sınıflar.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcht6\source\repos\GAExamSchedule\Sample Input Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcht6\source\repos\GAExamSchedule\GAExamSchedule\ScheduleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6970D679-82C4-4FD4-82D7-9D1FD3663FF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B0195B-0031-4CCB-B8E8-604F8A42028E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>Derslik</t>
-  </si>
-  <si>
-    <t>ID</t>
   </si>
   <si>
     <t>İsim</t>
@@ -125,10 +122,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE3421ED-E6AF-4854-B1E9-F0BB1028DBA1}" name="Tablo1" displayName="Tablo1" ref="A1:D11" totalsRowShown="0">
-  <autoFilter ref="A1:D11" xr:uid="{57980F97-433F-4627-B518-76FBB2F9A753}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8934BA7B-BC0E-442A-B213-09250E8CAAEB}" name="ID"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE3421ED-E6AF-4854-B1E9-F0BB1028DBA1}" name="Tablo1" displayName="Tablo1" ref="A1:C11" totalsRowShown="0">
+  <autoFilter ref="A1:C11" xr:uid="{57980F97-433F-4627-B518-76FBB2F9A753}"/>
+  <tableColumns count="3">
     <tableColumn id="2" xr3:uid="{9706B8D5-01E3-4943-84D0-8B3661458990}" name="İsim"/>
     <tableColumn id="3" xr3:uid="{360C69B3-9E96-47BB-BDE0-50188731746D}" name="Tür"/>
     <tableColumn id="4" xr3:uid="{28D96CBA-11BB-42AE-9014-AE223D4AFE7F}" name="Kapasite"/>
@@ -400,19 +396,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -422,147 +418,114 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
       <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
       <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
       <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
       <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
       <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
       <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
       <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
       <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
       <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>90</v>
       </c>
     </row>
